--- a/药味.xlsx
+++ b/药味.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="9917"/>
+    <workbookView windowWidth="17374" windowHeight="9917"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="608">
   <si>
     <t>药物</t>
   </si>
@@ -1811,6 +1811,33 @@
   </si>
   <si>
     <t>毛莨</t>
+  </si>
+  <si>
+    <t>黄酒</t>
+  </si>
+  <si>
+    <t>冬瓜仁</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>守宫</t>
+  </si>
+  <si>
+    <t>蚕砂</t>
+  </si>
+  <si>
+    <t>侧柏炭</t>
+  </si>
+  <si>
+    <t>红藤</t>
+  </si>
+  <si>
+    <t>冬青</t>
+  </si>
+  <si>
+    <t>两头尖</t>
   </si>
 </sst>
 </file>
@@ -1818,10 +1845,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1829,6 +1856,59 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1846,9 +1926,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1863,46 +1965,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1915,37 +1987,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1954,23 +1995,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1985,31 +2012,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,55 +2048,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,25 +2090,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2117,55 +2168,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,17 +2221,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2213,7 +2234,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2235,17 +2256,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2266,13 +2280,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2284,10 +2311,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2296,138 +2323,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2509,13 +2539,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B938" totalsRowShown="0">
-  <autoFilter ref="A1:B938"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B951" totalsRowShown="0">
+  <autoFilter ref="A1:B951"/>
   <tableColumns count="2">
     <tableColumn id="1" name="药物" dataDxfId="0"/>
     <tableColumn id="2" name="药味" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2777,10 +2807,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B938"/>
+  <dimension ref="A1:B951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B938"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelCol="1"/>
@@ -10292,6 +10322,110 @@
         <v>3</v>
       </c>
     </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
